--- a/src/experiment/results/wilcoxon/colon/noise/L1SVM_auc_folds.xlsx
+++ b/src/experiment/results/wilcoxon/colon/noise/L1SVM_auc_folds.xlsx
@@ -485,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8375</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="F2" t="n">
         <v>0.125</v>
@@ -537,7 +537,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8125</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="F4" t="n">
         <v>0.125</v>
@@ -563,7 +563,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="F5" t="n">
         <v>0.125</v>
@@ -589,7 +589,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="F6" t="n">
         <v>0.125</v>

--- a/src/experiment/results/wilcoxon/colon/noise/L1SVM_auc_folds.xlsx
+++ b/src/experiment/results/wilcoxon/colon/noise/L1SVM_auc_folds.xlsx
@@ -485,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6071428571428571</v>
+        <v>0.8375</v>
       </c>
       <c r="F2" t="n">
         <v>0.125</v>
@@ -537,7 +537,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.8125</v>
       </c>
       <c r="F4" t="n">
         <v>0.125</v>
@@ -563,7 +563,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="F5" t="n">
         <v>0.125</v>
@@ -589,7 +589,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="F6" t="n">
         <v>0.125</v>
